--- a/rad_pipeline/week_three_fib_layout.xlsx
+++ b/rad_pipeline/week_three_fib_layout.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>Location</t>
   </si>
@@ -26,94 +26,94 @@
     <t>r02c01</t>
   </si>
   <si>
+    <t>r04c01</t>
+  </si>
+  <si>
+    <t>r01c07</t>
+  </si>
+  <si>
+    <t>r02c06</t>
+  </si>
+  <si>
+    <t>r03c07</t>
+  </si>
+  <si>
+    <t>r04c06</t>
+  </si>
+  <si>
+    <t>r01c12</t>
+  </si>
+  <si>
+    <t>r02c11</t>
+  </si>
+  <si>
+    <t>r03c12</t>
+  </si>
+  <si>
+    <t>r04c11</t>
+  </si>
+  <si>
+    <t>r07c02</t>
+  </si>
+  <si>
+    <t>r07c04</t>
+  </si>
+  <si>
+    <t>r08c01</t>
+  </si>
+  <si>
+    <t>r08c03</t>
+  </si>
+  <si>
+    <t>r07c10</t>
+  </si>
+  <si>
+    <t>r07c12</t>
+  </si>
+  <si>
+    <t>r08c09</t>
+  </si>
+  <si>
+    <t>r08c11</t>
+  </si>
+  <si>
+    <t>r01c01</t>
+  </si>
+  <si>
+    <t>Compound_1</t>
+  </si>
+  <si>
+    <t>Compound_9</t>
+  </si>
+  <si>
+    <t>r01c03</t>
+  </si>
+  <si>
+    <t>Compound_17</t>
+  </si>
+  <si>
+    <t>Compound_2</t>
+  </si>
+  <si>
+    <t>r02c02</t>
+  </si>
+  <si>
+    <t>Compound_10</t>
+  </si>
+  <si>
+    <t>r02c03</t>
+  </si>
+  <si>
+    <t>untreated</t>
+  </si>
+  <si>
+    <t>r03c01</t>
+  </si>
+  <si>
+    <t>Compound_3</t>
+  </si>
+  <si>
     <t>r03c02</t>
-  </si>
-  <si>
-    <t>r04c01</t>
-  </si>
-  <si>
-    <t>r01c07</t>
-  </si>
-  <si>
-    <t>r02c06</t>
-  </si>
-  <si>
-    <t>r03c07</t>
-  </si>
-  <si>
-    <t>r04c06</t>
-  </si>
-  <si>
-    <t>r01c12</t>
-  </si>
-  <si>
-    <t>r02c11</t>
-  </si>
-  <si>
-    <t>r03c12</t>
-  </si>
-  <si>
-    <t>r04c11</t>
-  </si>
-  <si>
-    <t>r07c02</t>
-  </si>
-  <si>
-    <t>r07c04</t>
-  </si>
-  <si>
-    <t>r08c01</t>
-  </si>
-  <si>
-    <t>r08c03</t>
-  </si>
-  <si>
-    <t>r07c10</t>
-  </si>
-  <si>
-    <t>r07c12</t>
-  </si>
-  <si>
-    <t>r08c09</t>
-  </si>
-  <si>
-    <t>r08c11</t>
-  </si>
-  <si>
-    <t>r01c01</t>
-  </si>
-  <si>
-    <t>Compound_1</t>
-  </si>
-  <si>
-    <t>Compound_9</t>
-  </si>
-  <si>
-    <t>r01c03</t>
-  </si>
-  <si>
-    <t>Compound_17</t>
-  </si>
-  <si>
-    <t>Compound_2</t>
-  </si>
-  <si>
-    <t>r02c02</t>
-  </si>
-  <si>
-    <t>Compound_10</t>
-  </si>
-  <si>
-    <t>r02c03</t>
-  </si>
-  <si>
-    <t>untreated</t>
-  </si>
-  <si>
-    <t>r03c01</t>
-  </si>
-  <si>
-    <t>Compound_3</t>
   </si>
   <si>
     <t>Compound_11</t>
@@ -512,7 +512,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>1.0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -576,7 +576,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>0.001</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -608,7 +608,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>2.0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -635,14 +635,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
@@ -2250,10 +2243,10 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -2261,15 +2254,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -2277,36 +2270,36 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>34</v>
@@ -2317,12 +2310,12 @@
         <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>36</v>
@@ -2341,7 +2334,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -2365,7 +2358,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -2389,7 +2382,7 @@
         <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -2402,7 +2395,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>52</v>
@@ -2413,12 +2406,12 @@
         <v>53</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>54</v>
@@ -2434,10 +2427,10 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">

--- a/rad_pipeline/week_three_fib_layout.xlsx
+++ b/rad_pipeline/week_three_fib_layout.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>Location</t>
   </si>
@@ -23,73 +23,73 @@
     <t>r01c02</t>
   </si>
   <si>
+    <t>r04c01</t>
+  </si>
+  <si>
+    <t>r01c07</t>
+  </si>
+  <si>
+    <t>r02c06</t>
+  </si>
+  <si>
+    <t>r03c07</t>
+  </si>
+  <si>
+    <t>r04c06</t>
+  </si>
+  <si>
+    <t>r01c12</t>
+  </si>
+  <si>
+    <t>r02c11</t>
+  </si>
+  <si>
+    <t>r03c12</t>
+  </si>
+  <si>
+    <t>r04c11</t>
+  </si>
+  <si>
+    <t>r07c02</t>
+  </si>
+  <si>
+    <t>r07c04</t>
+  </si>
+  <si>
+    <t>r08c01</t>
+  </si>
+  <si>
+    <t>r08c03</t>
+  </si>
+  <si>
+    <t>r07c10</t>
+  </si>
+  <si>
+    <t>r07c12</t>
+  </si>
+  <si>
+    <t>r08c09</t>
+  </si>
+  <si>
+    <t>r08c11</t>
+  </si>
+  <si>
+    <t>r01c01</t>
+  </si>
+  <si>
+    <t>Compound_1</t>
+  </si>
+  <si>
+    <t>Compound_9</t>
+  </si>
+  <si>
+    <t>r01c03</t>
+  </si>
+  <si>
+    <t>Compound_17</t>
+  </si>
+  <si>
     <t>r02c01</t>
-  </si>
-  <si>
-    <t>r04c01</t>
-  </si>
-  <si>
-    <t>r01c07</t>
-  </si>
-  <si>
-    <t>r02c06</t>
-  </si>
-  <si>
-    <t>r03c07</t>
-  </si>
-  <si>
-    <t>r04c06</t>
-  </si>
-  <si>
-    <t>r01c12</t>
-  </si>
-  <si>
-    <t>r02c11</t>
-  </si>
-  <si>
-    <t>r03c12</t>
-  </si>
-  <si>
-    <t>r04c11</t>
-  </si>
-  <si>
-    <t>r07c02</t>
-  </si>
-  <si>
-    <t>r07c04</t>
-  </si>
-  <si>
-    <t>r08c01</t>
-  </si>
-  <si>
-    <t>r08c03</t>
-  </si>
-  <si>
-    <t>r07c10</t>
-  </si>
-  <si>
-    <t>r07c12</t>
-  </si>
-  <si>
-    <t>r08c09</t>
-  </si>
-  <si>
-    <t>r08c11</t>
-  </si>
-  <si>
-    <t>r01c01</t>
-  </si>
-  <si>
-    <t>Compound_1</t>
-  </si>
-  <si>
-    <t>Compound_9</t>
-  </si>
-  <si>
-    <t>r01c03</t>
-  </si>
-  <si>
-    <t>Compound_17</t>
   </si>
   <si>
     <t>Compound_2</t>
@@ -504,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>1.0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -536,7 +536,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -568,7 +568,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>0.001</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -600,7 +600,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>2.0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -627,14 +627,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
+    <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
@@ -2243,10 +2236,10 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -2254,20 +2247,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -2315,7 +2308,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>36</v>
@@ -2395,7 +2388,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>52</v>
@@ -2411,7 +2404,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>54</v>
@@ -2427,7 +2420,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>30</v>
